--- a/input.xlsx
+++ b/input.xlsx
@@ -11,24 +11,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>IATA</t>
   </si>
   <si>
     <t>FCO</t>
   </si>
+  <si>
+    <t>FEZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -55,7 +62,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -274,7 +281,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -283,8 +290,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
